--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件撤诉件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件撤诉件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121763</v>
+        <v>162040</v>
       </c>
       <c r="C2" t="n">
-        <v>25679</v>
+        <v>47862</v>
       </c>
       <c r="D2" t="n">
-        <v>150664</v>
+        <v>281504</v>
       </c>
       <c r="E2" t="n">
-        <v>68101</v>
+        <v>250695</v>
       </c>
       <c r="F2" t="n">
-        <v>20535</v>
+        <v>13795</v>
       </c>
       <c r="G2" t="n">
-        <v>12958</v>
+        <v>61176</v>
       </c>
       <c r="H2" t="n">
-        <v>525770</v>
+        <v>1023670</v>
       </c>
       <c r="I2" t="n">
-        <v>12080</v>
+        <v>21737</v>
       </c>
       <c r="J2" t="n">
-        <v>18219</v>
+        <v>30964</v>
       </c>
       <c r="K2" t="n">
-        <v>13666</v>
+        <v>21139</v>
       </c>
       <c r="L2" t="n">
-        <v>53398</v>
+        <v>86382</v>
       </c>
       <c r="M2" t="n">
-        <v>28707</v>
+        <v>46376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124485</v>
+        <v>152330</v>
       </c>
       <c r="C3" t="n">
-        <v>30936</v>
+        <v>41002</v>
       </c>
       <c r="D3" t="n">
-        <v>156556</v>
+        <v>287983</v>
       </c>
       <c r="E3" t="n">
-        <v>73081</v>
+        <v>274605</v>
       </c>
       <c r="F3" t="n">
-        <v>19080</v>
+        <v>12561</v>
       </c>
       <c r="G3" t="n">
-        <v>16207</v>
+        <v>57896</v>
       </c>
       <c r="H3" t="n">
-        <v>554392</v>
+        <v>1031361</v>
       </c>
       <c r="I3" t="n">
-        <v>13444</v>
+        <v>21194</v>
       </c>
       <c r="J3" t="n">
-        <v>20283</v>
+        <v>31974</v>
       </c>
       <c r="K3" t="n">
-        <v>14642</v>
+        <v>19441</v>
       </c>
       <c r="L3" t="n">
-        <v>54355</v>
+        <v>86904</v>
       </c>
       <c r="M3" t="n">
-        <v>31323</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127835</v>
+        <v>158328</v>
       </c>
       <c r="C4" t="n">
-        <v>34278</v>
+        <v>43607</v>
       </c>
       <c r="D4" t="n">
-        <v>143640</v>
+        <v>339866</v>
       </c>
       <c r="E4" t="n">
-        <v>83766</v>
+        <v>323626</v>
       </c>
       <c r="F4" t="n">
-        <v>17350</v>
+        <v>10925</v>
       </c>
       <c r="G4" t="n">
-        <v>18646</v>
+        <v>67871</v>
       </c>
       <c r="H4" t="n">
-        <v>570207</v>
+        <v>1149117</v>
       </c>
       <c r="I4" t="n">
-        <v>14800</v>
+        <v>22500</v>
       </c>
       <c r="J4" t="n">
-        <v>20676</v>
+        <v>31747</v>
       </c>
       <c r="K4" t="n">
-        <v>16488</v>
+        <v>18529</v>
       </c>
       <c r="L4" t="n">
-        <v>61686</v>
+        <v>89129</v>
       </c>
       <c r="M4" t="n">
-        <v>31042</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125515</v>
+        <v>163042</v>
       </c>
       <c r="C5" t="n">
-        <v>35697</v>
+        <v>34739</v>
       </c>
       <c r="D5" t="n">
-        <v>147551</v>
+        <v>357704</v>
       </c>
       <c r="E5" t="n">
-        <v>100502</v>
+        <v>340765</v>
       </c>
       <c r="F5" t="n">
-        <v>17385</v>
+        <v>7633</v>
       </c>
       <c r="G5" t="n">
-        <v>20988</v>
+        <v>72990</v>
       </c>
       <c r="H5" t="n">
-        <v>592807</v>
+        <v>1174796</v>
       </c>
       <c r="I5" t="n">
-        <v>16406</v>
+        <v>24495</v>
       </c>
       <c r="J5" t="n">
-        <v>20252</v>
+        <v>33553</v>
       </c>
       <c r="K5" t="n">
-        <v>18258</v>
+        <v>18857</v>
       </c>
       <c r="L5" t="n">
-        <v>59330</v>
+        <v>76857</v>
       </c>
       <c r="M5" t="n">
-        <v>30923</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128078</v>
+        <v>170821</v>
       </c>
       <c r="C6" t="n">
-        <v>37124</v>
+        <v>33017</v>
       </c>
       <c r="D6" t="n">
-        <v>149594</v>
+        <v>365960</v>
       </c>
       <c r="E6" t="n">
-        <v>108918</v>
+        <v>372338</v>
       </c>
       <c r="F6" t="n">
-        <v>17664</v>
+        <v>5419</v>
       </c>
       <c r="G6" t="n">
-        <v>22407</v>
+        <v>69754</v>
       </c>
       <c r="H6" t="n">
-        <v>600851</v>
+        <v>1197175</v>
       </c>
       <c r="I6" t="n">
-        <v>15810</v>
+        <v>27261</v>
       </c>
       <c r="J6" t="n">
-        <v>19985</v>
+        <v>35883</v>
       </c>
       <c r="K6" t="n">
-        <v>19092</v>
+        <v>20522</v>
       </c>
       <c r="L6" t="n">
-        <v>50319</v>
+        <v>47213</v>
       </c>
       <c r="M6" t="n">
-        <v>31860</v>
+        <v>48987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133012</v>
+        <v>213096</v>
       </c>
       <c r="C7" t="n">
-        <v>37269</v>
+        <v>35709</v>
       </c>
       <c r="D7" t="n">
-        <v>163873</v>
+        <v>411743</v>
       </c>
       <c r="E7" t="n">
-        <v>124790</v>
+        <v>471771</v>
       </c>
       <c r="F7" t="n">
-        <v>15587</v>
+        <v>5552</v>
       </c>
       <c r="G7" t="n">
-        <v>29305</v>
+        <v>80007</v>
       </c>
       <c r="H7" t="n">
-        <v>645551</v>
+        <v>1408859</v>
       </c>
       <c r="I7" t="n">
-        <v>17171</v>
+        <v>34220</v>
       </c>
       <c r="J7" t="n">
-        <v>20239</v>
+        <v>44658</v>
       </c>
       <c r="K7" t="n">
-        <v>19911</v>
+        <v>23482</v>
       </c>
       <c r="L7" t="n">
-        <v>50260</v>
+        <v>31300</v>
       </c>
       <c r="M7" t="n">
-        <v>34134</v>
+        <v>57321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149137</v>
+        <v>259004</v>
       </c>
       <c r="C8" t="n">
-        <v>37987</v>
+        <v>38121</v>
       </c>
       <c r="D8" t="n">
-        <v>201997</v>
+        <v>478509</v>
       </c>
       <c r="E8" t="n">
-        <v>160593</v>
+        <v>573535</v>
       </c>
       <c r="F8" t="n">
-        <v>15711</v>
+        <v>5670</v>
       </c>
       <c r="G8" t="n">
-        <v>50895</v>
+        <v>76886</v>
       </c>
       <c r="H8" t="n">
-        <v>783059</v>
+        <v>1637565</v>
       </c>
       <c r="I8" t="n">
-        <v>20010</v>
+        <v>38609</v>
       </c>
       <c r="J8" t="n">
-        <v>22803</v>
+        <v>50391</v>
       </c>
       <c r="K8" t="n">
-        <v>22105</v>
+        <v>25017</v>
       </c>
       <c r="L8" t="n">
-        <v>62478</v>
+        <v>25865</v>
       </c>
       <c r="M8" t="n">
-        <v>39343</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>165610</v>
-      </c>
-      <c r="C9" t="n">
-        <v>46159</v>
-      </c>
-      <c r="D9" t="n">
-        <v>250444</v>
-      </c>
-      <c r="E9" t="n">
-        <v>215071</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11530</v>
-      </c>
-      <c r="G9" t="n">
-        <v>66825</v>
-      </c>
-      <c r="H9" t="n">
-        <v>943338</v>
-      </c>
-      <c r="I9" t="n">
-        <v>21768</v>
-      </c>
-      <c r="J9" t="n">
-        <v>27290</v>
-      </c>
-      <c r="K9" t="n">
-        <v>21854</v>
-      </c>
-      <c r="L9" t="n">
-        <v>74917</v>
-      </c>
-      <c r="M9" t="n">
-        <v>41870</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>162040</v>
-      </c>
-      <c r="C10" t="n">
-        <v>47862</v>
-      </c>
-      <c r="D10" t="n">
-        <v>281504</v>
-      </c>
-      <c r="E10" t="n">
-        <v>250695</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13795</v>
-      </c>
-      <c r="G10" t="n">
-        <v>61176</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1023670</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21737</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30964</v>
-      </c>
-      <c r="K10" t="n">
-        <v>21139</v>
-      </c>
-      <c r="L10" t="n">
-        <v>86382</v>
-      </c>
-      <c r="M10" t="n">
-        <v>46376</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>152330</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41002</v>
-      </c>
-      <c r="D11" t="n">
-        <v>287983</v>
-      </c>
-      <c r="E11" t="n">
-        <v>274605</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12561</v>
-      </c>
-      <c r="G11" t="n">
-        <v>57896</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1031361</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21194</v>
-      </c>
-      <c r="J11" t="n">
-        <v>31974</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19441</v>
-      </c>
-      <c r="L11" t="n">
-        <v>86904</v>
-      </c>
-      <c r="M11" t="n">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>158328</v>
-      </c>
-      <c r="C12" t="n">
-        <v>43607</v>
-      </c>
-      <c r="D12" t="n">
-        <v>339866</v>
-      </c>
-      <c r="E12" t="n">
-        <v>323626</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10925</v>
-      </c>
-      <c r="G12" t="n">
-        <v>67871</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1149117</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22500</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31747</v>
-      </c>
-      <c r="K12" t="n">
-        <v>18529</v>
-      </c>
-      <c r="L12" t="n">
-        <v>89129</v>
-      </c>
-      <c r="M12" t="n">
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>163042</v>
-      </c>
-      <c r="C13" t="n">
-        <v>34739</v>
-      </c>
-      <c r="D13" t="n">
-        <v>357704</v>
-      </c>
-      <c r="E13" t="n">
-        <v>340765</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7633</v>
-      </c>
-      <c r="G13" t="n">
-        <v>72990</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1174796</v>
-      </c>
-      <c r="I13" t="n">
-        <v>24495</v>
-      </c>
-      <c r="J13" t="n">
-        <v>33553</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18857</v>
-      </c>
-      <c r="L13" t="n">
-        <v>76857</v>
-      </c>
-      <c r="M13" t="n">
-        <v>44161</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>170821</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33017</v>
-      </c>
-      <c r="D14" t="n">
-        <v>365960</v>
-      </c>
-      <c r="E14" t="n">
-        <v>372338</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5419</v>
-      </c>
-      <c r="G14" t="n">
-        <v>69754</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1197175</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27261</v>
-      </c>
-      <c r="J14" t="n">
-        <v>35883</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20522</v>
-      </c>
-      <c r="L14" t="n">
-        <v>47213</v>
-      </c>
-      <c r="M14" t="n">
-        <v>48987</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>213096</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35709</v>
-      </c>
-      <c r="D15" t="n">
-        <v>411743</v>
-      </c>
-      <c r="E15" t="n">
-        <v>471771</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5552</v>
-      </c>
-      <c r="G15" t="n">
-        <v>80007</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1408859</v>
-      </c>
-      <c r="I15" t="n">
-        <v>34220</v>
-      </c>
-      <c r="J15" t="n">
-        <v>44658</v>
-      </c>
-      <c r="K15" t="n">
-        <v>23482</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31300</v>
-      </c>
-      <c r="M15" t="n">
-        <v>57321</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>259004</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38121</v>
-      </c>
-      <c r="D16" t="n">
-        <v>478509</v>
-      </c>
-      <c r="E16" t="n">
-        <v>573535</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5670</v>
-      </c>
-      <c r="G16" t="n">
-        <v>76886</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1637565</v>
-      </c>
-      <c r="I16" t="n">
-        <v>38609</v>
-      </c>
-      <c r="J16" t="n">
-        <v>50391</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25017</v>
-      </c>
-      <c r="L16" t="n">
-        <v>25865</v>
-      </c>
-      <c r="M16" t="n">
         <v>65958</v>
       </c>
     </row>
